--- a/biology/Botanique/Talinum_paniculatum/Talinum_paniculatum.xlsx
+++ b/biology/Botanique/Talinum_paniculatum/Talinum_paniculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Talinum paniculatum est une plante vivace de la famille des Talinaceae, originaire d'Amérique, qui forme un buisson à racine tubéreuse.
 Talinum paniculatum est cultivée en tant que plante ornementale ; d'autres espèces du genre talinum sont comestibles dont la Talinum fruticosum qui est très souvent cultivée dans les régions tropicales en tant que légume-feuille.
@@ -512,11 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique valide : Talinum paniculatum (Jacq.) Gaertn.
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Faux ginseng[4]
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : gros pourpier[3], herbe d'onze heures[3] à ne pas confondre avec la dame d'onze heures ou Ornithogale en ombelle (Ornithogalum umbellatum).</t>
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Faux ginseng
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : gros pourpier, herbe d'onze heures à ne pas confondre avec la dame d'onze heures ou Ornithogale en ombelle (Ornithogalum umbellatum).</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique de 1797
@@ -581,9 +597,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est probablement originaire des pays suivants : Paraguay, Uruguay[3] et d'Amérique du Nord. Elle a été introduite notamment en Afrique et en Asie[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est probablement originaire des pays suivants : Paraguay, Uruguay et d'Amérique du Nord. Elle a été introduite notamment en Afrique et en Asie.
 </t>
         </is>
       </c>
@@ -612,10 +630,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite en 1760 sous le basionyme de Portulaca paniculata par Nicolaus Joseph von Jacquin (1727-1817), puis recombinée dans le genre Talinum en 1791 par Joseph Gaertner (1732-1791)[6].
-En classification phylogénétique APG III (2009)[7], Talinum paniculatum fait partie de la famille des Talinaceae, elle a été assignée par le passé à la famille des pourpiers ou Portulacées (Portulacaceae).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 1760 sous le basionyme de Portulaca paniculata par Nicolaus Joseph von Jacquin (1727-1817), puis recombinée dans le genre Talinum en 1791 par Joseph Gaertner (1732-1791).
+En classification phylogénétique APG III (2009), Talinum paniculatum fait partie de la famille des Talinaceae, elle a été assignée par le passé à la famille des pourpiers ou Portulacées (Portulacaceae).
 </t>
         </is>
       </c>
